--- a/app/data/absenteeism_data_31.xlsx
+++ b/app/data/absenteeism_data_31.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67325</v>
+        <v>79432</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Vitor Fernandes</t>
+          <t>Caroline Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>2659.76</v>
+        <v>9302.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3873</v>
+        <v>24355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabelly Cardoso</t>
+          <t>Sofia Rezende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>5967.44</v>
+        <v>2640.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82317</v>
+        <v>84387</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah Melo</t>
+          <t>Augusto Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>9840.610000000001</v>
+        <v>3527.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92024</v>
+        <v>61682</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Henrique Teixeira</t>
+          <t>Mariana Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,111 +584,111 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>4735.39</v>
+        <v>10615.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82281</v>
+        <v>27469</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esther Teixeira</t>
+          <t>Thiago da Mata</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>4820.68</v>
+        <v>7096.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18279</v>
+        <v>13364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira</t>
+          <t>Ana da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>11211.05</v>
+        <v>2508.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95185</v>
+        <v>82186</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduarda Nascimento</t>
+          <t>Dr. Raul Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>11304.72</v>
+        <v>11774.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5432</v>
+        <v>86438</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Fernanda Melo</t>
+          <t>Thales Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>11861.64</v>
+        <v>3661.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44336</v>
+        <v>85695</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Daniel Oliveira</t>
+          <t>Antônio Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>7162.2</v>
+        <v>11570.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55590</v>
+        <v>96160</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Júlia da Rosa</t>
+          <t>Thales Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>8845.690000000001</v>
+        <v>9928.639999999999</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_31.xlsx
+++ b/app/data/absenteeism_data_31.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17549</v>
+        <v>3767</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renan Jesus</t>
+          <t>Bianca Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>7757.26</v>
+        <v>7014.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87781</v>
+        <v>35649</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Eduarda Lima</t>
+          <t>Maria Sophia Porto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>9755.209999999999</v>
+        <v>2907.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57991</v>
+        <v>72966</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leandro da Cunha</t>
+          <t>Esther Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,113 +548,113 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>11022.76</v>
+        <v>10437.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57712</v>
+        <v>54806</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rodrigo Carvalho</t>
+          <t>Raquel Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>4988.61</v>
+        <v>6070.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51671</v>
+        <v>1569</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pedro Cavalcanti</t>
+          <t>Alana Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>4350.69</v>
+        <v>4014.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84224</v>
+        <v>30112</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camila Fernandes</t>
+          <t>Mariana Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>11707.78</v>
+        <v>4385.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53312</v>
+        <v>3970</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Pietra Jesus</t>
+          <t>Gustavo Henrique da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>8165.24</v>
+        <v>6117.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38129</v>
+        <v>88128</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alexia Ribeiro</t>
+          <t>Sra. Luiza Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>7713.2</v>
+        <v>5018.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96520</v>
+        <v>42646</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella Vieira</t>
+          <t>Maria Luiza Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>4259.71</v>
+        <v>8233.540000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61052</v>
+        <v>34611</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brenda Barros</t>
+          <t>Bernardo Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>4965.19</v>
+        <v>11750.56</v>
       </c>
     </row>
   </sheetData>
